--- a/biology/Botanique/Liste_des_genres_de_Bambuseae/Liste_des_genres_de_Bambuseae.xlsx
+++ b/biology/Botanique/Liste_des_genres_de_Bambuseae/Liste_des_genres_de_Bambuseae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La liste des genres de Bambuseae se compose de 68 genres répartis en sept sous-tribus. La tribu des Bambuseae Kunth ex Dumort. [1829] regroupe environ 900 espèces de bambous ligneux des régions tropicales et subtropicales.
-Selon une classification phylogénétique des Poaceae établie en 2015, les sous-tribus des Melanocanninae (95 espèces), Hickeliinae (38 espèces), Racemobambosinae (19 espèces) et Bambusinae (368 espèces) forment un clade distribué en Eurasie et en Australasie, ou en Afrique, et ont un ancêtre commun avec les sous-tribus des Arthrostylidiinae (167 espèces), Guaduinae (41 espèces) et Chusqueinae (165 espèces) distribuées dans l'hémisphère occidental, principalement en Amérique du Sud et en Amérique centrale[1]. 
+La liste des genres de Bambuseae se compose de 68 genres répartis en sept sous-tribus. La tribu des Bambuseae Kunth ex Dumort.  regroupe environ 900 espèces de bambous ligneux des régions tropicales et subtropicales.
+Selon une classification phylogénétique des Poaceae établie en 2015, les sous-tribus des Melanocanninae (95 espèces), Hickeliinae (38 espèces), Racemobambosinae (19 espèces) et Bambusinae (368 espèces) forment un clade distribué en Eurasie et en Australasie, ou en Afrique, et ont un ancêtre commun avec les sous-tribus des Arthrostylidiinae (167 espèces), Guaduinae (41 espèces) et Chusqueinae (165 espèces) distribuées dans l'hémisphère occidental, principalement en Amérique du Sud et en Amérique centrale. 
 </t>
         </is>
       </c>
@@ -515,20 +527,235 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arthrostylidiinae
-La sous-tribu des Arthrostylidiinae Soderstr. &amp; R.P. Ellis [1987] comprend 14 genres : Actinocladum, Alvimia, Arthrostylidium, Athroostachys, Atractantha, Aulonemia (syn. – Colanthelia, Matudacalamus), Cambajuva, Didymogonyx, Elytrostachys, Filgueirasia, Glaziophyton, Merostachys, Myriocladus, Rhipidocladum. 
-Bambusinae
-La sous-tribu des Bambusinae J. Presl [1830] (syn. – Dendrocalaminae Benth. [1881]) comprend 29 genres : Bambusa (syn. – Dendrocalamopsis, Neosinocalamus), Bonia, Cyrtochloa, Dendrocalamus (syn. – Klemachloa, Sinocalamus), Dinochloa, Fimbribambusa, Gigantochloa, Greslania, Holttumochloa, Kinabaluchloa, Maclurochloa, Melocalamus, Mullerochloa, Nianhochloa, Neololeba, Neomicrocalamus, Oreobambos, Oxytenanthera (syn. – Houzeaubambus?), Parabambusa, Phuphanochloa, Pinga, Pseudobambusa, Pseudoxytenanthera, Soejatmia, Sphaerobambos, Temburongia, Temochloa, Thrysostachys, Vietanamosasa
-Chusqueinae
-La sous-tribu des Chusqueinae Soderstr. &amp; R.P. Ellis [1987] (syn. – Neurolepidinae Soderstr. &amp; R.P. Ellis [1987]) comprend 1 genre : Chusquea (syn. – Neurolepis, Platonia, Rettbergia, Swallenochloa). 
-Guaduinae
-La sous-tribu des Guaduinae Soderstr. &amp; R.P. Ellis [1987] comprend 5 genres : Apoclada, Eremocaulon (syn. – Criciuma), Guadua, Olmeca, Otatea. 
-Hickeliinae
-La sous-tribu des Hickeliinae A. Camus (syn. – Nastinae Soderstr. &amp; R.P. Ellis [1987]) comprend 8 genres : Cathariostachys, Decaryochloa, Hickelia (syn. – Pseudocoix), Hitchcockella, Nastus (syn. – Oreiostachys), Perrierbambus, Sirochloa, Valiha.
-Melocanninae
-La sous-tribu des Melocanninae Benth. [1881] (syn. – Schizostachydinae Soderstr. &amp; R.P. Ellis [1987]) comprend 10 genres : Cephalostachyum, Davidsea, Dendrochloa, Melocanna, Neohouzeaua, Ochlandra, Pseudostachyum, Schizostachyum (syn. – Leptocanna), Stapletonia, Teinostachyum. 
-Racemobambosinae
-La sous-tribu des Racemobambosinae Stapleton [1984] comprend 1 genre : Racemobambos s.s.
+          <t>Arthrostylidiinae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-tribu des Arthrostylidiinae Soderstr. &amp; R.P. Ellis  comprend 14 genres : Actinocladum, Alvimia, Arthrostylidium, Athroostachys, Atractantha, Aulonemia (syn. – Colanthelia, Matudacalamus), Cambajuva, Didymogonyx, Elytrostachys, Filgueirasia, Glaziophyton, Merostachys, Myriocladus, Rhipidocladum. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres par sous-tribus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bambusinae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-tribu des Bambusinae J. Presl  (syn. – Dendrocalaminae Benth. ) comprend 29 genres : Bambusa (syn. – Dendrocalamopsis, Neosinocalamus), Bonia, Cyrtochloa, Dendrocalamus (syn. – Klemachloa, Sinocalamus), Dinochloa, Fimbribambusa, Gigantochloa, Greslania, Holttumochloa, Kinabaluchloa, Maclurochloa, Melocalamus, Mullerochloa, Nianhochloa, Neololeba, Neomicrocalamus, Oreobambos, Oxytenanthera (syn. – Houzeaubambus?), Parabambusa, Phuphanochloa, Pinga, Pseudobambusa, Pseudoxytenanthera, Soejatmia, Sphaerobambos, Temburongia, Temochloa, Thrysostachys, Vietanamosasa
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres par sous-tribus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chusqueinae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-tribu des Chusqueinae Soderstr. &amp; R.P. Ellis  (syn. – Neurolepidinae Soderstr. &amp; R.P. Ellis ) comprend 1 genre : Chusquea (syn. – Neurolepis, Platonia, Rettbergia, Swallenochloa). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des genres par sous-tribus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Guaduinae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-tribu des Guaduinae Soderstr. &amp; R.P. Ellis  comprend 5 genres : Apoclada, Eremocaulon (syn. – Criciuma), Guadua, Olmeca, Otatea. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres par sous-tribus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hickeliinae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-tribu des Hickeliinae A. Camus (syn. – Nastinae Soderstr. &amp; R.P. Ellis ) comprend 8 genres : Cathariostachys, Decaryochloa, Hickelia (syn. – Pseudocoix), Hitchcockella, Nastus (syn. – Oreiostachys), Perrierbambus, Sirochloa, Valiha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres par sous-tribus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Melocanninae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-tribu des Melocanninae Benth.  (syn. – Schizostachydinae Soderstr. &amp; R.P. Ellis ) comprend 10 genres : Cephalostachyum, Davidsea, Dendrochloa, Melocanna, Neohouzeaua, Ochlandra, Pseudostachyum, Schizostachyum (syn. – Leptocanna), Stapletonia, Teinostachyum. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_genres_de_Bambuseae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des genres par sous-tribus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Racemobambosinae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-tribu des Racemobambosinae Stapleton  comprend 1 genre : Racemobambos s.s.
 </t>
         </is>
       </c>
